--- a/Temp/b1/ObjectRepository.xlsx
+++ b/Temp/b1/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\WorkSpace3\AGsFW\ObjectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\WorkSpace\FrameWork - Copy\ObjectRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
   <si>
     <t>ObjectName</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>android.widget.EditText</t>
+  </si>
+  <si>
+    <t>.//input[@aria-label='Search']</t>
+  </si>
+  <si>
+    <t>GoogleSearch</t>
+  </si>
+  <si>
+    <t>GitHubLink</t>
+  </si>
+  <si>
+    <t>.//button[@aria-label='Google Search']</t>
+  </si>
+  <si>
+    <t>SearchButton</t>
+  </si>
+  <si>
+    <t>.//*[@href='https://github.com/']</t>
   </si>
 </sst>
 </file>
@@ -544,7 +562,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,9 +598,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" t="str">
         <f>IF(A2&lt;&gt;"","Browser.WebLink.click("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;");","")</f>
-        <v/>
+        <v>Browser.WebLink.click("GitHubLink");</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6631,7 +6655,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6669,9 +6693,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" t="str">
         <f>IF(A2&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;");","")</f>
-        <v/>
+        <v>Browser.WebButton.click("SearchButton");</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12675,7 +12705,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F98"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12712,9 +12742,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G33" si="0">IF(A2&lt;&gt;"","Browser.WebEdit.Set("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;", getdata("&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;"));","")</f>
-        <v/>
+        <v>Browser.WebEdit.Set("GoogleSearch", getdata("GoogleSearch"));</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
